--- a/finetuning/it_datasets/it_dataset/it_takelsa_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_takelsa_dataset.xlsx
@@ -658,9 +658,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you happen to be in takelsa and are looking for a wonderful experience, visit Port Des Princes Takelsa **g' located at VMJ9+F9P Port Des Princes Takelsa **g', Port Des Princes, Mornaguia. 
-This highly-rated destination is ideal for those who love Agence de visites touristiques and offers a range of Agence de visites touristiques to pick from. 
-With a remarkable rating of 4, it is a must-visit spot. It's open 24 hours a day, 7 days a week. For further details, check out their website at http://www.facebook.com/PortDePrinceTakelsa or call them at 21 425 578.</t>
+          <t>Port Des Princes Takelsa **g' is a travel agency located in Port Des Princes, Mornaguia. It offers a 24/7 service to satisfy your traveling needs and desires. The agency is well rated with a 4 out of 5 rating. The main activity of the agency is sightseeing. If you are looking for a travel agency in takelsa, Port Des Princes Takelsa **g' is a good choice.</t>
         </is>
       </c>
     </row>
